--- a/biology/Zoologie/Agnaridae/Agnaridae.xlsx
+++ b/biology/Zoologie/Agnaridae/Agnaridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Agnaridae est composée de cloportes, c'est-à-dire de crustacés terrestres de l'ordre des Isopoda et du sous-ordre des Oniscidea. Les espèces la composant étaient autrefois placées parmi les Trachelipodidae, puis déplacées parmi les Porcellionidae en 1989, avant d'intégrer cette famille en 2003[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Agnaridae est composée de cloportes, c'est-à-dire de crustacés terrestres de l'ordre des Isopoda et du sous-ordre des Oniscidea. Les espèces la composant étaient autrefois placées parmi les Trachelipodidae, puis déplacées parmi les Porcellionidae en 1989, avant d'intégrer cette famille en 2003.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (30 janv. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (30 janv. 2012) :
 genre Agnara Budde-Lund, 1908
 genre Pseudoagnara Taiti &amp; Ferrara, 2004
-Selon Schmalfuss (2003)[3] :
+Selon Schmalfuss (2003) :
 Agnara Budde-Lund, 1908
 Desertoniscus Verhoeff, 1930
 Fossoniscus Strouhal, 1965
@@ -530,7 +544,7 @@
 Pseudoagnara Taiti &amp; Ferrara, 2004
 Socotroniscus Ferrara &amp; Taiti, 1996
 Tritracheoniscus Taiti &amp; Manicastri, 1985
-Les genres Phalaba et Tadzhikoniscus pourraient également faire partie de cette famille[3].
+Les genres Phalaba et Tadzhikoniscus pourraient également faire partie de cette famille.
 </t>
         </is>
       </c>
